--- a/M Partner14Oct20.xlsx
+++ b/M Partner14Oct20.xlsx
@@ -338,7 +338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -458,10 +458,17 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -667,15 +674,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -683,19 +690,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,7 +790,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4:G8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30417,8 +30424,8 @@
   </sheetPr>
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="C4:G8 D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30976,14 +30983,13 @@
   </sheetPr>
   <dimension ref="C3:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4:G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="22.64"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -30996,7 +31002,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="22" t="s">
         <v>95</v>
       </c>
@@ -31005,7 +31011,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="23" t="s">
         <v>96</v>
       </c>
@@ -31022,7 +31028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="26" t="s">
         <v>99</v>
       </c>
@@ -31039,7 +31045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="30" t="s">
         <v>100</v>
       </c>
@@ -31080,7 +31086,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4:G8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
